--- a/data/respirometry/middle/final_rates/200_rates.xlsx
+++ b/data/respirometry/middle/final_rates/200_rates.xlsx
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z2">
-        <v>-0.1045817092908571</v>
+        <v>-0.0965673523669755</v>
       </c>
       <c r="AB2">
-        <v>-0.004183268371634285</v>
+        <v>-434.8682906591158</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.004183268371634285</v>
+        <v>-434.8682906591158</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z3">
-        <v>-0.1343608920941219</v>
+        <v>-0.1238353147265803</v>
       </c>
       <c r="AB3">
-        <v>-0.005374435683764876</v>
+        <v>-482.7032713075126</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.005374435683764876</v>
+        <v>-482.7032713075126</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z4">
-        <v>-0.15649111073293</v>
+        <v>-0.1496887826809702</v>
       </c>
       <c r="AB4">
-        <v>-0.006259644429317201</v>
+        <v>-600.8667693439612</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.006259644429317201</v>
+        <v>-600.8667693439612</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z5">
-        <v>-0.1910191183134687</v>
+        <v>-0.1818591880090642</v>
       </c>
       <c r="AB5">
-        <v>-0.007640764732538749</v>
+        <v>-873.2002859815095</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.007640764732538749</v>
+        <v>-873.2002859815095</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z6">
-        <v>-0.1680050434422214</v>
+        <v>-0.1607340688266305</v>
       </c>
       <c r="AB6">
-        <v>-0.006720201737688858</v>
+        <v>-1000.123094921256</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.006720201737688858</v>
+        <v>-1000.123094921256</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z7">
-        <v>-0.1364711275380562</v>
+        <v>-0.1285993019301953</v>
       </c>
       <c r="AB7">
-        <v>-0.005458845101522249</v>
+        <v>-572.1556746093943</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.005458845101522249</v>
+        <v>-572.1556746093943</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1100,24 +1100,28 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.0002688779806891514</v>
-      </c>
-      <c r="AB8">
-        <v>1.075511922756605E-05</v>
+        <v>0.0002688083412225135</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>1.075511922756605E-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1187,24 +1191,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1426048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002220611491829204</v>
       </c>
       <c r="Z9">
-        <v>0.1059370942633227</v>
+        <v>0.09781887081237563</v>
       </c>
       <c r="AB9">
-        <v>0.004237483770532907</v>
+        <v>440.5042087384606</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.004237483770532907</v>
+        <v>440.5042087384606</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1274,24 +1278,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1423414634146342</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0002565454225970831</v>
       </c>
       <c r="Z10">
-        <v>0.1042872354572963</v>
+        <v>0.09611757129278738</v>
       </c>
       <c r="AB10">
-        <v>0.004171489418291853</v>
+        <v>374.6610261830499</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>0.004171489418291853</v>
+        <v>374.6610261830499</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1361,24 +1365,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1477268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002491214197856265</v>
       </c>
       <c r="Z11">
-        <v>0.2353030018134254</v>
+        <v>0.2250748923543684</v>
       </c>
       <c r="AB11">
-        <v>0.009412120072537018</v>
+        <v>903.474669291984</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>0.009412120072537018</v>
+        <v>903.474669291984</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1448,24 +1452,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1470341463414634</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002082674398172554</v>
       </c>
       <c r="Z12">
-        <v>0.2106144455260764</v>
+        <v>0.2005148614679312</v>
       </c>
       <c r="AB12">
-        <v>0.008424577821043057</v>
+        <v>962.7758503387439</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.008424577821043057</v>
+        <v>962.7758503387439</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1535,24 +1539,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1477560975609756</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001607142857142857</v>
       </c>
       <c r="Z13">
-        <v>0.1846648973554255</v>
+        <v>0.1766729123914516</v>
       </c>
       <c r="AB13">
-        <v>0.007386595894217018</v>
+        <v>1099.29812154681</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.007386595894217018</v>
+        <v>1099.29812154681</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1622,24 +1626,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1455317073170732</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0002247627833421192</v>
       </c>
       <c r="Z14">
-        <v>0.05809195884533632</v>
+        <v>0.05474114188134516</v>
       </c>
       <c r="AB14">
-        <v>0.002323678353813453</v>
+        <v>243.550738549192</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>0.002323678353813453</v>
+        <v>243.550738549192</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1709,24 +1713,28 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.001152716197354454</v>
-      </c>
-      <c r="AB15">
-        <v>4.610864789417816E-05</v>
+        <v>0.001152417643560786</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>4.610864789417816E-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
